--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Elvis Molina.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Elvis Molina.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t xml:space="preserve">Fecha de Pago</t>
   </si>
@@ -263,9 +263,6 @@
     <t xml:space="preserve">Fondo - Ahorro</t>
   </si>
   <si>
-    <t xml:space="preserve">Descuento - Anticipo - 4 Boletas rifa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Descuento - Producto - 20 de Noviembre</t>
   </si>
   <si>
@@ -281,7 +278,7 @@
     <t xml:space="preserve">Fondo - Almuerzo</t>
   </si>
   <si>
-    <t xml:space="preserve">Fondo - Rifa</t>
+    <t xml:space="preserve">Fondo - Rifa - 4 Boletas rifa</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1443,10 +1440,10 @@
         <v>4081</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>30919</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>19250</v>
       </c>
       <c r="L23"/>
     </row>
@@ -2182,7 +2179,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="n">
-        <v>-40000</v>
+        <v>-77689</v>
       </c>
       <c r="L45" s="1"/>
     </row>
@@ -2204,17 +2201,17 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="n">
-        <v>-77689</v>
+        <v>-10570</v>
       </c>
       <c r="L46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>15</v>
@@ -2226,13 +2223,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="n">
-        <v>-10570</v>
+        <v>-34000</v>
       </c>
       <c r="L47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
@@ -2248,17 +2245,17 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="n">
-        <v>-34000</v>
+        <v>-15000</v>
       </c>
       <c r="L48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>15</v>
@@ -2292,31 +2289,9 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="n">
-        <v>-15000</v>
+        <v>-40000</v>
       </c>
       <c r="L50" s="1"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1" t="n">
-        <v>-40000</v>
-      </c>
-      <c r="L51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
